--- a/会员体系/会员分析/会员报表/慢病成长路径/慢病成长路径数据报表.xlsx
+++ b/会员体系/会员分析/会员报表/慢病成长路径/慢病成长路径数据报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\益丰电商\MEMBER\会员体系\会员分析\会员报表\慢病成长路径\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC9E9A-4170-4CD7-B8A8-EA75B7EE56E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044E2D9-5E92-44C1-8F80-081F32258B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>紧急程度</t>
   </si>
@@ -68,9 +68,6 @@
     <t>需求用途</t>
   </si>
   <si>
-    <t xml:space="preserve">用于输出各分子公司及营运季度例会数据需求 </t>
-  </si>
-  <si>
     <t>较低</t>
   </si>
   <si>
@@ -92,19 +89,12 @@
     <t>使用范围</t>
   </si>
   <si>
-    <t>财务管理本部
-总裁室</t>
-  </si>
-  <si>
     <t>较高</t>
   </si>
   <si>
     <t>需求对接人</t>
   </si>
   <si>
-    <t>彭志</t>
-  </si>
-  <si>
     <t>实施管理人</t>
   </si>
   <si>
@@ -132,273 +122,17 @@
     <t>延时原因</t>
   </si>
   <si>
-    <t>视图：CV_MEMB_QUART_BULLETIN</t>
-  </si>
-  <si>
-    <t>公司编码</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>门管部编码</t>
-  </si>
-  <si>
-    <t>门管部名称</t>
-  </si>
-  <si>
-    <t>片区编码</t>
-  </si>
-  <si>
-    <t>片区名称</t>
-  </si>
-  <si>
-    <t>门店编码</t>
-  </si>
-  <si>
-    <t>门店名称</t>
-  </si>
-  <si>
-    <t>总销售</t>
-  </si>
-  <si>
-    <t>总客流</t>
-  </si>
-  <si>
-    <t>会员销售</t>
-  </si>
-  <si>
-    <t>会员客流</t>
-  </si>
-  <si>
-    <t>会员销售占比</t>
-  </si>
-  <si>
-    <t>会员客流占比</t>
-  </si>
-  <si>
-    <t>消费会员数</t>
-  </si>
-  <si>
-    <t>年新增会员数</t>
-  </si>
-  <si>
-    <t>年新增有消费会员数</t>
-  </si>
-  <si>
-    <t>年新增会员消费频次</t>
-  </si>
-  <si>
-    <t>年新增会员消费客单</t>
-  </si>
-  <si>
-    <t>年新增会员贡献销售</t>
-  </si>
-  <si>
-    <t>年新增会员贡献毛利</t>
-  </si>
-  <si>
-    <t>年新增会员贡献毛利率</t>
-  </si>
-  <si>
-    <t>年复购会员数</t>
-  </si>
-  <si>
-    <t>上一年消费会员数</t>
-  </si>
-  <si>
-    <t>年复购会员消费频次</t>
-  </si>
-  <si>
-    <t>年复购会员贡献销售</t>
-  </si>
-  <si>
-    <t>年复购会员贡献毛利</t>
-  </si>
-  <si>
-    <t>年复购会员贡献毛利率</t>
-  </si>
-  <si>
-    <t>流失会员数</t>
-  </si>
-  <si>
-    <t>会员流失率（流失会员占比）</t>
-  </si>
-  <si>
-    <t>低活跃会员占比</t>
-  </si>
-  <si>
-    <t>高活跃会员占比</t>
-  </si>
-  <si>
-    <t>忠诚会员占比</t>
-  </si>
-  <si>
-    <t>低沉睡会员占比</t>
-  </si>
-  <si>
-    <t>高沉睡会员占比</t>
-  </si>
-  <si>
     <t>字段</t>
   </si>
   <si>
     <t>逻辑</t>
   </si>
   <si>
-    <t>起止时间内总销售</t>
-  </si>
-  <si>
-    <t>营运采用每单算一个客流；CRM采用同会员同天同门店算一次客流，非会员一单算一个客流</t>
-  </si>
-  <si>
-    <t>起止时间段内会员总销售</t>
-  </si>
-  <si>
-    <t>起止时间段内会员总客流</t>
-  </si>
-  <si>
-    <t>起止时间段内会员总销售/起止时间段内总销售</t>
-  </si>
-  <si>
-    <t>起止时间段内会员总客流/起止时间段内总客流</t>
-  </si>
-  <si>
-    <t>总会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时所属门店（或所属片区、门管部、公司）的总会员数</t>
-  </si>
-  <si>
-    <t>起止时间段内消费会员数</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增会员数</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增并有消费的会员数</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增并有消费的会员平均消费频次</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增并有消费的会员平均客单</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增的会员贡献总销售</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增的会员贡献总毛利</t>
-  </si>
-  <si>
-    <t>起止时间段内当年新增的会员贡献毛利率</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费会员数</t>
-  </si>
-  <si>
-    <t>在起始时间前一年消费总会员数</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费的会员平均消费频次</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费的会员平均客单</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费的会员贡献总销售</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费的会员贡献总毛利</t>
-  </si>
-  <si>
-    <t>起止时间段内消费并且上一年有消费的会员贡献毛利率</t>
-  </si>
-  <si>
-    <t>在终止时间时以前有消费但超过180天未消费会员（会员标签表获取）</t>
-  </si>
-  <si>
-    <t>会员流失率</t>
-  </si>
-  <si>
-    <t>在终止时间时流失且在起始时间时未流失且历史有消费的会员数/在起始时间时未流失且历史有消费的会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时55天内消费1次的会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时除去忠诚会员，55天内至少有2次购买的会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时55天内每隔20天购买1次的会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时超过55天但未超过110天未消费的会员数</t>
-  </si>
-  <si>
-    <t>在终止时间时超过110天但未超过180天未消费的会员数</t>
-  </si>
-  <si>
-    <t>汇总表样式</t>
-  </si>
-  <si>
-    <t>查询条件</t>
-  </si>
-  <si>
-    <t>起止日期：</t>
-  </si>
-  <si>
-    <t>注：起止时间不能跨年，起止时间只能是每个月月底或近一个月</t>
-  </si>
-  <si>
-    <t>行政组织：</t>
-  </si>
-  <si>
-    <t>分公司</t>
-  </si>
-  <si>
-    <t>流失率</t>
-  </si>
-  <si>
-    <t>活跃率</t>
-  </si>
-  <si>
-    <t>明细表样式</t>
-  </si>
-  <si>
-    <t>查询条件：</t>
-  </si>
-  <si>
-    <t>门店编号</t>
-  </si>
-  <si>
-    <t>会员数</t>
-  </si>
-  <si>
-    <t>活跃会员数</t>
-  </si>
-  <si>
     <t>备注：</t>
   </si>
   <si>
-    <t>1、江苏公司不含粤海/其他公司不含收购店</t>
-  </si>
-  <si>
-    <t>2、客流统计剔除退单/积分兑换等非正常销售单据</t>
-  </si>
-  <si>
-    <t>3、所有定量的数据，例如销售、频次都从订单直接取，定性的数据，如标签类，都从会员标签取</t>
-  </si>
-  <si>
-    <t>4、总共需要两站报表，营运一张，CRM一张，就是关于频次、客流的数据会不一致，但是各自报表内部口径保持一致。</t>
-  </si>
-  <si>
     <t>丁汝佳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢病成长路径数据报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -415,7 +149,177 @@
       </rPr>
       <t>RM慢病管理部</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于使用数据指导慢病专员了解当前工作完成情况及参考标准趋势 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚泊彰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM慢病管理部及门店慢病专员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病门店成长路径数据报表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病开始月份数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月产值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月消费频次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月到店频次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店简称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从慢病门店开展开始到当前时间连续性年月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月按照时间大小排升序值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月对应月建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员在年月到店会员数/对应年月到月底前累计建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员在年月消费会员数/对应年月到月底前累计建档会员数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员中有消费会员在年月人均消费频次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员中有消费会员在年月人均消费金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员中有到店会员在年月人均到店频次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、所有会员同人同天同门店算一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据中可能会存在慢病门店开展前就建档的会员及建档前就检测的会员，暂时按照正常逻辑计算，需要同步修复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应年月到月底前累计建档会员中有消费会员在年月消费毛利率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>店型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开业时长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按营运口径取大店、中店、小店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+  </si>
+  <si>
+    <t>分公司</t>
+  </si>
+  <si>
+    <t>SHEET1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEET2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止到所选年份年底到分公司到店型门店指标中位数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分公司：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,11 +341,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -473,6 +372,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -555,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,13 +475,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -583,20 +484,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,7 +520,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -622,14 +541,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +603,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -752,7 +665,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -814,7 +727,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -876,7 +789,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -938,7 +851,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1000,7 +913,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1062,7 +975,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1124,7 +1037,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1186,7 +1099,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1248,7 +1161,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1310,7 +1223,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1372,7 +1285,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1434,7 +1347,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1496,7 +1409,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1558,7 +1471,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1620,7 +1533,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1682,7 +1595,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1744,7 +1657,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1806,7 +1719,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1868,7 +1781,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1930,7 +1843,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -1992,7 +1905,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2054,7 +1967,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2116,7 +2029,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2178,7 +2091,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2240,7 +2153,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2302,7 +2215,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="123825"/>
@@ -2670,59 +2583,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ77"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="34" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="19" width="28.625" customWidth="1"/>
+    <col min="5" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="AE1" t="s">
+    <row r="1" spans="1:27" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="X1" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="Z1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AA1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>119</v>
+      <c r="B2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2730,53 +2636,53 @@
       <c r="D2" s="3">
         <v>43818</v>
       </c>
-      <c r="AH2" s="11"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="AE3" t="s">
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="X3" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="Y3" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="Z3" t="s">
         <v>7</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AA3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="X4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="AE4" t="s">
+      <c r="Y4" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="Z4" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AA4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2787,27 +2693,27 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="s">
         <v>16</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AA5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2815,14 +2721,14 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="X6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2830,633 +2736,471 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="AA7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20191223</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
-        <f>IFERROR(D9-B9,0)</f>
+        <f>D10-B10</f>
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <f>IFERROR(D10-D9,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="B30" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="B36" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="B37" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="25"/>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="E45" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="F45" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="G45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="H45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC15" s="7" t="s">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A65" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A66" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B65" s="12"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="A75" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="A76" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.15">
-      <c r="A77" s="13" t="s">
-        <v>118</v>
-      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A68" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"较低"</formula>
@@ -3478,16 +3222,16 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$AF$2:$AF$5</formula1>
+      <formula1>$Y$2:$Y$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$AE$2:$AE$7</formula1>
+      <formula1>$X$2:$X$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$AG$2:$AG$5</formula1>
+      <formula1>$Z$2:$Z$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$AH$2:$AH$7</formula1>
+      <formula1>$AA$2:$AA$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,7 +3248,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -3518,7 +3262,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
